--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saumdas/git/dsalgo/dsalgo/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shilp\git\LMS-Portal\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BDFC74-A965-6544-A315-95E9CFD618E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9113EAE-4D71-48A7-A240-384D0F4F8244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,40 +33,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>ninja153</t>
-  </si>
-  <si>
-    <t>abcde</t>
-  </si>
-  <si>
-    <t>sgr232s</t>
-  </si>
-  <si>
-    <t>abcwer2</t>
-  </si>
-  <si>
-    <t>sdet@153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfdf@w45fd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdet@153 </t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>userFirstName</t>
+  </si>
+  <si>
+    <t>userMiddleName</t>
+  </si>
+  <si>
+    <t>userLastName</t>
+  </si>
+  <si>
+    <t>userLocation</t>
+  </si>
+  <si>
+    <t>userPhoneNumber</t>
+  </si>
+  <si>
+    <t>userLinkedinUrl</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>Under Graduate</t>
+  </si>
+  <si>
+    <t>Post Graduate</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>User Comments</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Lakhsman</t>
+  </si>
+  <si>
+    <t>Janaki</t>
+  </si>
+  <si>
+    <t>Ayodhya</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/Ram-Janaki</t>
+  </si>
+  <si>
+    <t>ram.lakhshman@gmail.com</t>
+  </si>
+  <si>
+    <t>B.E</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,6 +241,14 @@
       <sz val="12"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -504,7 +548,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -547,12 +591,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -586,6 +632,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -926,59 +973,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.9140625" customWidth="1"/>
+    <col min="2" max="2" width="18.08203125" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="13.9140625" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="14.4140625" customWidth="1"/>
+    <col min="10" max="10" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="13.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>1234567890</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{24FB318D-4459-46F8-A665-0EFE4D157094}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{7B34CAA1-00F8-4B14-AAAF-7D1973D3D360}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>